--- a/nonlife_2019/nolife_local_2019.xlsx
+++ b/nonlife_2019/nolife_local_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/nonlife_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9FB7A-687B-9A42-9FC8-F3606D5948F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A101F4-1F70-6944-88CF-D0E91A09CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1320" windowWidth="23040" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="23040" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E953CC7B-1109-1B49-9D9F-01281CB611D8}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2334,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2003C970-1D03-C641-999A-32F054AB87C6}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.99999999999999956</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C17" s="3">
         <f>_xlfn.STDEV.P(C2:C15)</f>
-        <v>7.4064869550235529E-2</v>
+        <v>7.4064869550235571E-2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:J17" si="1">_xlfn.STDEV.P(D2:D15)</f>
